--- a/papers.xlsx
+++ b/papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70c614cdd566ba31/Diary/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{169302C4-1AC9-4812-B9C4-39247B2ED6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7ED645F0-0419-4A14-BB19-94F43BEDEDCF}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{169302C4-1AC9-4812-B9C4-39247B2ED6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10EEB6DB-1F14-4B3C-B900-36EC55D21172}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>RM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,10 +230,6 @@
       </rPr>
       <t>阅读时间</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,6 +351,105 @@
   </si>
   <si>
     <t xml:space="preserve"> explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICLR
+2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyulu Xu</t>
+  </si>
+  <si>
+    <t>How powerful are Graph Neural Networks?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNN
+aggregate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/weihua916/powerful-gnns</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精读</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分替换。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从理论框架上分析各种聚集函数的适用情景以及优劣，拟合程度。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聚集函数和同构问题，里面的例子不是很理解</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -547,6 +642,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="79.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -845,11 +946,11 @@
     <col min="11" max="11" width="30.6640625" style="10" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="3"/>
     <col min="13" max="13" width="25.21875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="14" max="15" width="17.21875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -889,11 +990,14 @@
       <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="79.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="79.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -920,24 +1024,61 @@
         <v>2</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="7">
+        <v>22</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7">
         <v>44085</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="79.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="79.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="14">
+        <v>44088</v>
       </c>
     </row>
   </sheetData>
@@ -1024,19 +1165,19 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="1">
         <v>2019</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="9"/>
